--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\Documents\431\HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8A3F3-3435-4C25-A98C-155646BB53A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF1247B-3FF6-404D-ABA8-DFF2198F5428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7B39F01-378E-4F43-AB15-E722C412DEAB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A7B39F01-378E-4F43-AB15-E722C412DEAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Initial Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Report" sheetId="4" r:id="rId2"/>
+    <sheet name="Hybrid Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Hybrid Report" sheetId="2" r:id="rId4"/>
+    <sheet name="K Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
   <si>
     <t>Test</t>
   </si>
@@ -97,6 +100,42 @@
   </si>
   <si>
     <t>Average Time Merge Sort</t>
+  </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Insertion (10^-4sec)</t>
+  </si>
+  <si>
+    <t>Merge (10^-4 sec)</t>
+  </si>
+  <si>
+    <t>N=10</t>
+  </si>
+  <si>
+    <t>N=500</t>
+  </si>
+  <si>
+    <t>N=750</t>
+  </si>
+  <si>
+    <t>N=1000</t>
+  </si>
+  <si>
+    <t>N=1100</t>
+  </si>
+  <si>
+    <t>N=1200</t>
+  </si>
+  <si>
+    <t>N=1500</t>
   </si>
 </sst>
 </file>
@@ -186,8 +225,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Insertion vs Merge Sort</a:t>
+              <a:t>Insertion</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Merge Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -271,34 +315,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>225</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -310,34 +354,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.20180000000000001</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63039999999999996</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79079999999999995</c:v>
+                  <c:v>1.5800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7403999999999999</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7932000000000001</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7160000000000002</c:v>
+                  <c:v>0.53680000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0632000000000001</c:v>
+                  <c:v>0.86580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9774000000000003</c:v>
+                  <c:v>1.0356000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4950000000000001</c:v>
+                  <c:v>1.2454000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9621999999999993</c:v>
+                  <c:v>2.0032000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,7 +389,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B566-42A2-A2A9-F653604CE2D6}"/>
+              <c16:uniqueId val="{00000000-2055-43F7-9A80-B8168974BD48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -394,34 +438,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>225</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,6 +473,1007 @@
           <c:yVal>
             <c:numRef>
               <c:f>Report!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0656000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2055-43F7-9A80-B8168974BD48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328157855"/>
+        <c:axId val="1328158335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328157855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data Size (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328158335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328158335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Time (10^-4 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328157855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Large N (250,000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$C$19:$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$C$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.4059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1799999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A9A-426E-902D-6A43ECC14F52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1224264431"/>
+        <c:axId val="1224264911"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1224264431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1224264911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1224264911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1224264431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Insertion vs Merge Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hybrid Report'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Time Insertion Sort </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hybrid Report'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hybrid Report'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7403999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7932000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0632000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9774000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9621999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B566-42A2-A2A9-F653604CE2D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hybrid Report'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Time Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hybrid Report'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hybrid Report'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -806,7 +1851,547 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Large N (250,000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10992825896762906"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.85673840769903764"/>
+          <c:h val="0.62308654126567509"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hybrid Report'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hybrid Report'!$C$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hybrid Report'!$C$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.4989999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3794-4CA6-A4F2-674BA329F3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1331719455"/>
+        <c:axId val="1331718495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1331719455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sort Function</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331718495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1331718495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331719455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1362,7 +2947,1608 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7142</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45242</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9508E4A-3E72-D6E1-9E0F-4A55FB3F8D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311943</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350043</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FF594C-191D-6039-E39C-22BD3ECC8D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1395,6 +4581,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>550068</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>588168</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F318C7-E36B-287C-3B22-DA375BB05466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1719,11 +4941,1007 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF65F8C-09D1-4BAE-9B6F-16665BF5189B}">
+  <dimension ref="A2:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="24.06640625" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" customWidth="1"/>
+    <col min="7" max="7" width="15.06640625" customWidth="1"/>
+    <col min="10" max="10" width="16.53125" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K5">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B4:B8)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C4:C8)</f>
+        <v>1.3199999999999998E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(F4:F8)</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(G4:G8)</f>
+        <v>5.5200000000000006E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE(J4:J8)</f>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE(K4:K8)</f>
+        <v>8.8199999999999987E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.254</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="K13">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.248</v>
+      </c>
+      <c r="G14">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="K14">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="K15">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.08</v>
+      </c>
+      <c r="C16">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0.251</v>
+      </c>
+      <c r="G16">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="K16">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0.255</v>
+      </c>
+      <c r="G17">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="K17">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B13:B17)</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C13:C17)</f>
+        <v>0.24420000000000003</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f>AVERAGE(F13:F17)</f>
+        <v>0.255</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(G13:G17)</f>
+        <v>0.46259999999999996</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f>AVERAGE(J13:J17)</f>
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(K13:K17)</f>
+        <v>0.7125999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="G22">
+        <v>1.07</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1.224</v>
+      </c>
+      <c r="K22">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0.85</v>
+      </c>
+      <c r="C23">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1.038</v>
+      </c>
+      <c r="G23">
+        <v>1.052</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1.254</v>
+      </c>
+      <c r="K23">
+        <v>1.2010000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.87</v>
+      </c>
+      <c r="C24">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="G24">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="K24">
+        <v>1.147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.874</v>
+      </c>
+      <c r="C25">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="G25">
+        <v>1.048</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>1.256</v>
+      </c>
+      <c r="K25">
+        <v>1.2070000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.874</v>
+      </c>
+      <c r="C26">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>1.018</v>
+      </c>
+      <c r="G26">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>1.232</v>
+      </c>
+      <c r="K26">
+        <v>1.139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B22:B26)</f>
+        <v>0.8657999999999999</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C22:C26)</f>
+        <v>0.94059999999999988</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE(F22:F26)</f>
+        <v>1.0355999999999999</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(G22:G26)</f>
+        <v>1.0656000000000001</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f>AVERAGE(J22:J26)</f>
+        <v>1.2454000000000001</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE(K22:K26)</f>
+        <v>1.1688000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="C31">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4.4260000000000002</v>
+      </c>
+      <c r="G31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="C32">
+        <v>1.506</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="G32">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1.978</v>
+      </c>
+      <c r="C33">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>4.375</v>
+      </c>
+      <c r="G33">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="C34">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>4.3979999999999997</v>
+      </c>
+      <c r="G34">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>1.986</v>
+      </c>
+      <c r="C35">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="G35">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <f>AVERAGE(B31:B35)</f>
+        <v>2.0032000000000001</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE(C31:C35)</f>
+        <v>1.4940000000000002</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <f>AVERAGE(F31:F35)</f>
+        <v>4.4060000000000006</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE(G31:G35)</f>
+        <v>4.1800000000000004E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB91E6C-7F1A-43DD-BB44-DCD747665745}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.9296875" customWidth="1"/>
+    <col min="4" max="4" width="19.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D4">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.2442</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>0.255</v>
+      </c>
+      <c r="D7">
+        <v>0.46260000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>750</v>
+      </c>
+      <c r="C8">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.71260000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>0.86580000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.94059999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>1100</v>
+      </c>
+      <c r="C10">
+        <v>1.0356000000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.0656000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>1200</v>
+      </c>
+      <c r="C11">
+        <v>1.2454000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.1688000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>1500</v>
+      </c>
+      <c r="C12">
+        <v>2.0032000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.494</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>4.4059999999999997</v>
+      </c>
+      <c r="D20">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5372A5-E1D0-4513-B38A-1920D7D94323}">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2554,12 +6772,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294042B8-5C5F-45B6-A382-99F944D5DEFC}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2690,8 +6908,39 @@
         <v>8.2707999999999995</v>
       </c>
     </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>5.4989999999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DB2862-7785-4249-B5BD-74D316F204B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\Documents\431\HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF1247B-3FF6-404D-ABA8-DFF2198F5428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F73D1A4-7B58-4DB4-BE5D-AC2B2F5FD8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A7B39F01-378E-4F43-AB15-E722C412DEAB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{A7B39F01-378E-4F43-AB15-E722C412DEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="44">
   <si>
     <t>Test</t>
   </si>
@@ -136,6 +136,42 @@
   </si>
   <si>
     <t>N=1500</t>
+  </si>
+  <si>
+    <t>K=16</t>
+  </si>
+  <si>
+    <t>K=256</t>
+  </si>
+  <si>
+    <t>K=512</t>
+  </si>
+  <si>
+    <t>K=1100</t>
+  </si>
+  <si>
+    <t>K=1600</t>
+  </si>
+  <si>
+    <t>K=2400</t>
+  </si>
+  <si>
+    <t>N=125,000</t>
+  </si>
+  <si>
+    <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>K value</t>
+  </si>
+  <si>
+    <t>Sorting Algorithm</t>
+  </si>
+  <si>
+    <t>Hybrid Merge (K=256)</t>
+  </si>
+  <si>
+    <t>Hybrid Merge (K=1,100)</t>
   </si>
 </sst>
 </file>
@@ -2271,6 +2307,1301 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>N=250,000 </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K Data'!$D$22:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>N=250,000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K Data'!$C$24:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K Data'!$D$24:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.28E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8F4-459B-850B-CDE54011FC0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247827903"/>
+        <c:axId val="1247828863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247827903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>K Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247828863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247828863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247827903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>N=125,000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K Data'!$H$22:$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>N=125,000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K Data'!$G$24:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K Data'!$H$24:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7400000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADE0-4BB7-9D98-5D2C2D4963F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1249360719"/>
+        <c:axId val="1249365039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1249360719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>K Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249365039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1249365039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249360719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Merge Performance (N=250,000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'K Data'!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'K Data'!$B$51:$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hybrid Merge (K=256)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hybrid Merge (K=1,100)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'K Data'!$C$51:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.1799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9399999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5A2-4547-B9FD-54C5CFFE31F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1432441199"/>
+        <c:axId val="1432444079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1432441199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432444079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1432444079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432441199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2431,6 +3762,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3969,6 +5420,1541 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4625,6 +7611,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>454818</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16668</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883DC5A6-EB58-6B0C-5D89-56EF8427A621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E124B8C5-E316-5DA5-15FE-22202D70E921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>573881</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018D9AF6-840A-B334-C596-287148276DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4944,7 +8043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF65F8C-09D1-4BAE-9B6F-16665BF5189B}">
   <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5779,8 +8878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB91E6C-7F1A-43DD-BB44-DCD747665745}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5940,8 +9039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5372A5-E1D0-4513-B38A-1920D7D94323}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6935,12 +10034,798 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DB2862-7785-4249-B5BD-74D316F204B3}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="13" max="13" width="10.265625" customWidth="1"/>
+    <col min="17" max="17" width="9.86328125" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0.02</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0.03</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C4:C8)</f>
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(F4:F8)</f>
+        <v>1.4799999999999999E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(I4:I8)</f>
+        <v>1.9399999999999997E-2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(M4:M8)</f>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <f>AVERAGE(Q4:Q8)</f>
+        <v>2.9599999999999998E-2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <f>AVERAGE(U4:U8)</f>
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.01</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0.01</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0.01</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>0.01</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f>AVERAGE(F14:F18)</f>
+        <v>7.6E-3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(I14:I18)</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGE(M14:M18)</f>
+        <v>1.3800000000000002E-2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <f>AVERAGE(Q14:Q18)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <f>AVERAGE(U14:U18)</f>
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <f>C9</f>
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <f>C19</f>
+        <v>1.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <v>256</v>
+      </c>
+      <c r="D25">
+        <f>F9</f>
+        <v>1.4799999999999999E-2</v>
+      </c>
+      <c r="G25">
+        <v>256</v>
+      </c>
+      <c r="H25">
+        <f>F19</f>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <v>512</v>
+      </c>
+      <c r="D26">
+        <f>I9</f>
+        <v>1.9399999999999997E-2</v>
+      </c>
+      <c r="G26">
+        <v>512</v>
+      </c>
+      <c r="H26">
+        <f>I19</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <v>1100</v>
+      </c>
+      <c r="D27">
+        <f>M9</f>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="G27">
+        <v>1100</v>
+      </c>
+      <c r="H27">
+        <f>M19</f>
+        <v>1.3800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <v>1600</v>
+      </c>
+      <c r="D28">
+        <f>Q9</f>
+        <v>2.9599999999999998E-2</v>
+      </c>
+      <c r="G28">
+        <v>1600</v>
+      </c>
+      <c r="H28">
+        <f>Q19</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <v>2400</v>
+      </c>
+      <c r="D29">
+        <f>U9</f>
+        <v>5.28E-2</v>
+      </c>
+      <c r="G29">
+        <v>2400</v>
+      </c>
+      <c r="H29">
+        <f>U19</f>
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>